--- a/WorkBot/refactor/data/orders/Performance Food/Performance Food_Easthill_2025-09-25.xlsx
+++ b/WorkBot/refactor/data/orders/Performance Food/Performance Food_Easthill_2025-09-25.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -772,6 +772,141 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>TN374</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Natalie's - Lemonade</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AH252</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Natalie's - Orange Juice</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>24.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>TN454</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Natalie's - Orange Mango</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.38</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>13.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>TN362</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Natalie's - Orange Pineapple</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.38</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>13.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>TN380</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Natalie's - Strawberry Lemonade</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
